--- a/data/beds-vents-1105.xlsx
+++ b/data/beds-vents-1105.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="633">
   <si>
     <t>DATE</t>
   </si>
@@ -1910,6 +1910,9 @@
   </si>
   <si>
     <t>2021-11-03</t>
+  </si>
+  <si>
+    <t>2021-11-04</t>
   </si>
 </sst>
 </file>
@@ -2267,7 +2270,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O618"/>
+  <dimension ref="A1:O619"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -30491,6 +30494,53 @@
         <v>72</v>
       </c>
     </row>
+    <row r="619" spans="1:15">
+      <c r="A619" t="s">
+        <v>632</v>
+      </c>
+      <c r="B619">
+        <v>2250</v>
+      </c>
+      <c r="C619">
+        <v>335</v>
+      </c>
+      <c r="D619">
+        <v>1332</v>
+      </c>
+      <c r="E619">
+        <v>583</v>
+      </c>
+      <c r="F619">
+        <v>2773</v>
+      </c>
+      <c r="G619">
+        <v>168</v>
+      </c>
+      <c r="H619">
+        <v>567</v>
+      </c>
+      <c r="I619">
+        <v>2038</v>
+      </c>
+      <c r="J619">
+        <v>14.89</v>
+      </c>
+      <c r="K619">
+        <v>59.2</v>
+      </c>
+      <c r="L619">
+        <v>25.91</v>
+      </c>
+      <c r="M619">
+        <v>6.06</v>
+      </c>
+      <c r="N619">
+        <v>20.45</v>
+      </c>
+      <c r="O619">
+        <v>73.48999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
